--- a/문서/HTML 태그 정리.xlsx
+++ b/문서/HTML 태그 정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vulca\Desktop\공부\Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vulca\Desktop\공부\Web\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F73C3-F86D-4C0F-8EF6-1E5FF8B524FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8ACB36-E899-4675-B7E2-A6B33E7EC7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02F0918-FE3C-4C9F-9F6A-EBCBFEA6BA34}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02F0918-FE3C-4C9F-9F6A-EBCBFEA6BA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2072,6 +2072,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,21 +2104,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2909,8 +2909,8 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2926,22 +2926,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="53" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2958,11 +2958,11 @@
       <c r="D2" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="55" t="s">
         <v>325</v>
       </c>
       <c r="F2" s="46"/>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="54" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2977,8 +2977,8 @@
       <c r="D3" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="E3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
@@ -2991,8 +2991,8 @@
       <c r="D4" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="E4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -3005,8 +3005,8 @@
       <c r="D5" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="E5" s="54"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
@@ -3019,8 +3019,8 @@
       <c r="D6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="E6" s="54"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
@@ -3036,7 +3036,7 @@
       <c r="E7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" s="46" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
@@ -3052,7 +3052,7 @@
       <c r="E8" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
@@ -3538,7 +3538,7 @@
       <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="54"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
@@ -3550,7 +3550,7 @@
       <c r="D41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="54"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
@@ -3562,7 +3562,7 @@
       <c r="D42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="54"/>
+      <c r="E42" s="59"/>
     </row>
     <row r="43" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
@@ -3980,8 +3980,8 @@
       <c r="D72" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" s="46" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3993,20 +3993,20 @@
       <c r="D73" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
       <c r="G73" s="49"/>
     </row>
     <row r="74" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="56"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
     </row>
     <row r="75" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
@@ -4051,7 +4051,7 @@
       <c r="D77" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="56" t="s">
         <v>247</v>
       </c>
       <c r="F77" s="36"/>
@@ -4068,7 +4068,7 @@
       <c r="D78" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E78" s="52"/>
+      <c r="E78" s="57"/>
       <c r="F78" s="27"/>
     </row>
     <row r="79" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -4082,7 +4082,7 @@
       <c r="D79" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E79" s="52"/>
+      <c r="E79" s="57"/>
       <c r="F79" s="27"/>
     </row>
     <row r="80" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -4095,7 +4095,7 @@
       <c r="D80" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E80" s="52"/>
+      <c r="E80" s="57"/>
       <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -4109,7 +4109,7 @@
       <c r="D81" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E81" s="52"/>
+      <c r="E81" s="57"/>
       <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4122,7 +4122,7 @@
       <c r="D82" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E82" s="53"/>
+      <c r="E82" s="58"/>
       <c r="F82" s="27"/>
     </row>
     <row r="83" spans="1:7" s="22" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
